--- a/RR/RR.xlsx
+++ b/RR/RR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\4_semestr\Decision_making\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\4_semestr\MethodsAndModelsForDecisionMaking\RR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D71CF5-380E-41E2-8973-B1DD612629A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB092653-C776-48DF-A7A3-368245F6A029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="7" xr2:uid="{3930488A-7597-4D16-8734-3E026C679017}"/>
   </bookViews>
@@ -1148,6 +1148,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1172,11 +1177,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1204,16 +1204,65 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317969</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>12230</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>92430</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>200532</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>88430</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C17E26C-5EFD-E4C1-636A-A1FC903BEC7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7346298" y="191524"/>
+          <a:ext cx="7807363" cy="3303494"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>138150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1236,7 +1285,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4701540" y="335280"/>
+          <a:off x="5227320" y="198120"/>
           <a:ext cx="6316980" cy="3780510"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2331,18 +2380,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="41" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="I1" s="38" t="s">
+      <c r="F1" s="49"/>
+      <c r="I1" s="43" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2356,7 +2405,7 @@
       <c r="C2" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="42"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="18" t="s">
         <v>54</v>
       </c>
@@ -2369,7 +2418,7 @@
       <c r="H2" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="16">
@@ -2384,10 +2433,10 @@
       <c r="D3" s="16">
         <v>1000</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="50">
         <v>2</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="50">
         <v>1</v>
       </c>
       <c r="G3" s="16">
@@ -2396,7 +2445,7 @@
       <c r="H3" s="16">
         <v>1500</v>
       </c>
-      <c r="I3" s="39">
+      <c r="I3" s="44">
         <v>150</v>
       </c>
     </row>
@@ -2413,15 +2462,15 @@
       <c r="D4" s="16">
         <v>1000</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
       <c r="G4" s="16">
         <v>600</v>
       </c>
       <c r="H4" s="16">
         <v>1500</v>
       </c>
-      <c r="I4" s="40"/>
+      <c r="I4" s="45"/>
     </row>
     <row r="8" spans="1:11">
       <c r="B8" s="17" t="s">
@@ -2454,16 +2503,16 @@
     </row>
     <row r="12" spans="1:11" ht="14.4" customHeight="1"/>
     <row r="13" spans="1:11">
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="G13" s="44" t="s">
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="G13" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="17" t="s">
@@ -2585,14 +2634,14 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="G18" s="43" t="s">
+      <c r="G18" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="H18" s="43"/>
+      <c r="H18" s="48"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
     </row>
     <row r="20" spans="1:9">
       <c r="F20" s="17" t="s">
@@ -2814,25 +2863,25 @@
       <c r="C4" s="37">
         <v>2</v>
       </c>
-      <c r="D4" s="50">
-        <v>0</v>
-      </c>
-      <c r="E4" s="50">
-        <v>0</v>
-      </c>
-      <c r="F4" s="50">
-        <v>1</v>
-      </c>
-      <c r="G4" s="50">
-        <v>1</v>
-      </c>
-      <c r="H4" s="50">
-        <v>1</v>
-      </c>
-      <c r="I4" s="50">
-        <v>1</v>
-      </c>
-      <c r="J4" s="50">
+      <c r="D4" s="42">
+        <v>0</v>
+      </c>
+      <c r="E4" s="42">
+        <v>0</v>
+      </c>
+      <c r="F4" s="42">
+        <v>1</v>
+      </c>
+      <c r="G4" s="42">
+        <v>1</v>
+      </c>
+      <c r="H4" s="42">
+        <v>1</v>
+      </c>
+      <c r="I4" s="42">
+        <v>1</v>
+      </c>
+      <c r="J4" s="42">
         <v>1</v>
       </c>
     </row>
@@ -2846,25 +2895,25 @@
       <c r="C5" s="37">
         <v>6</v>
       </c>
-      <c r="D5" s="50">
-        <v>1</v>
-      </c>
-      <c r="E5" s="50">
-        <v>0</v>
-      </c>
-      <c r="F5" s="50">
-        <v>0</v>
-      </c>
-      <c r="G5" s="50">
-        <v>1</v>
-      </c>
-      <c r="H5" s="50">
-        <v>1</v>
-      </c>
-      <c r="I5" s="50">
-        <v>1</v>
-      </c>
-      <c r="J5" s="50">
+      <c r="D5" s="42">
+        <v>1</v>
+      </c>
+      <c r="E5" s="42">
+        <v>0</v>
+      </c>
+      <c r="F5" s="42">
+        <v>0</v>
+      </c>
+      <c r="G5" s="42">
+        <v>1</v>
+      </c>
+      <c r="H5" s="42">
+        <v>1</v>
+      </c>
+      <c r="I5" s="42">
+        <v>1</v>
+      </c>
+      <c r="J5" s="42">
         <v>1</v>
       </c>
     </row>
@@ -2878,25 +2927,25 @@
       <c r="C6" s="37">
         <v>6</v>
       </c>
-      <c r="D6" s="50">
-        <v>1</v>
-      </c>
-      <c r="E6" s="50">
-        <v>1</v>
-      </c>
-      <c r="F6" s="50">
-        <v>0</v>
-      </c>
-      <c r="G6" s="50">
-        <v>0</v>
-      </c>
-      <c r="H6" s="50">
-        <v>1</v>
-      </c>
-      <c r="I6" s="50">
-        <v>1</v>
-      </c>
-      <c r="J6" s="50">
+      <c r="D6" s="42">
+        <v>1</v>
+      </c>
+      <c r="E6" s="42">
+        <v>1</v>
+      </c>
+      <c r="F6" s="42">
+        <v>0</v>
+      </c>
+      <c r="G6" s="42">
+        <v>0</v>
+      </c>
+      <c r="H6" s="42">
+        <v>1</v>
+      </c>
+      <c r="I6" s="42">
+        <v>1</v>
+      </c>
+      <c r="J6" s="42">
         <v>1</v>
       </c>
     </row>
@@ -2910,25 +2959,25 @@
       <c r="C7" s="37">
         <v>3</v>
       </c>
-      <c r="D7" s="50">
-        <v>1</v>
-      </c>
-      <c r="E7" s="50">
-        <v>1</v>
-      </c>
-      <c r="F7" s="50">
-        <v>1</v>
-      </c>
-      <c r="G7" s="50">
-        <v>0</v>
-      </c>
-      <c r="H7" s="50">
-        <v>0</v>
-      </c>
-      <c r="I7" s="50">
-        <v>1</v>
-      </c>
-      <c r="J7" s="50">
+      <c r="D7" s="42">
+        <v>1</v>
+      </c>
+      <c r="E7" s="42">
+        <v>1</v>
+      </c>
+      <c r="F7" s="42">
+        <v>1</v>
+      </c>
+      <c r="G7" s="42">
+        <v>0</v>
+      </c>
+      <c r="H7" s="42">
+        <v>0</v>
+      </c>
+      <c r="I7" s="42">
+        <v>1</v>
+      </c>
+      <c r="J7" s="42">
         <v>1</v>
       </c>
     </row>
@@ -2942,25 +2991,25 @@
       <c r="C8" s="37">
         <v>7</v>
       </c>
-      <c r="D8" s="50">
-        <v>1</v>
-      </c>
-      <c r="E8" s="50">
-        <v>1</v>
-      </c>
-      <c r="F8" s="50">
-        <v>1</v>
-      </c>
-      <c r="G8" s="50">
-        <v>1</v>
-      </c>
-      <c r="H8" s="50">
-        <v>0</v>
-      </c>
-      <c r="I8" s="50">
-        <v>0</v>
-      </c>
-      <c r="J8" s="50">
+      <c r="D8" s="42">
+        <v>1</v>
+      </c>
+      <c r="E8" s="42">
+        <v>1</v>
+      </c>
+      <c r="F8" s="42">
+        <v>1</v>
+      </c>
+      <c r="G8" s="42">
+        <v>1</v>
+      </c>
+      <c r="H8" s="42">
+        <v>0</v>
+      </c>
+      <c r="I8" s="42">
+        <v>0</v>
+      </c>
+      <c r="J8" s="42">
         <v>1</v>
       </c>
     </row>
@@ -2974,25 +3023,25 @@
       <c r="C9" s="37">
         <v>0</v>
       </c>
-      <c r="D9" s="50">
-        <v>1</v>
-      </c>
-      <c r="E9" s="50">
-        <v>1</v>
-      </c>
-      <c r="F9" s="50">
-        <v>1</v>
-      </c>
-      <c r="G9" s="50">
-        <v>1</v>
-      </c>
-      <c r="H9" s="50">
-        <v>1</v>
-      </c>
-      <c r="I9" s="50">
-        <v>0</v>
-      </c>
-      <c r="J9" s="50">
+      <c r="D9" s="42">
+        <v>1</v>
+      </c>
+      <c r="E9" s="42">
+        <v>1</v>
+      </c>
+      <c r="F9" s="42">
+        <v>1</v>
+      </c>
+      <c r="G9" s="42">
+        <v>1</v>
+      </c>
+      <c r="H9" s="42">
+        <v>1</v>
+      </c>
+      <c r="I9" s="42">
+        <v>0</v>
+      </c>
+      <c r="J9" s="42">
         <v>0</v>
       </c>
     </row>
@@ -3006,25 +3055,25 @@
       <c r="C10" s="37">
         <v>1</v>
       </c>
-      <c r="D10" s="50">
-        <v>0</v>
-      </c>
-      <c r="E10" s="50">
-        <v>1</v>
-      </c>
-      <c r="F10" s="50">
-        <v>1</v>
-      </c>
-      <c r="G10" s="50">
-        <v>1</v>
-      </c>
-      <c r="H10" s="50">
-        <v>1</v>
-      </c>
-      <c r="I10" s="50">
-        <v>1</v>
-      </c>
-      <c r="J10" s="50">
+      <c r="D10" s="42">
+        <v>0</v>
+      </c>
+      <c r="E10" s="42">
+        <v>1</v>
+      </c>
+      <c r="F10" s="42">
+        <v>1</v>
+      </c>
+      <c r="G10" s="42">
+        <v>1</v>
+      </c>
+      <c r="H10" s="42">
+        <v>1</v>
+      </c>
+      <c r="I10" s="42">
+        <v>1</v>
+      </c>
+      <c r="J10" s="42">
         <v>0</v>
       </c>
     </row>
@@ -3095,7 +3144,7 @@
       <c r="B16" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="50">
+      <c r="C16" s="42">
         <v>400</v>
       </c>
     </row>
@@ -3103,7 +3152,7 @@
       <c r="B17" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="50">
+      <c r="C17" s="42">
         <v>2000</v>
       </c>
     </row>
@@ -3111,7 +3160,7 @@
       <c r="B18" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="50">
+      <c r="C18" s="42">
         <v>200</v>
       </c>
     </row>
@@ -3119,7 +3168,7 @@
       <c r="B20" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="46">
+      <c r="C20" s="38">
         <f>(C17+C18)*SUM(C4:C9)+C17*C10</f>
         <v>54800</v>
       </c>
@@ -3133,8 +3182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3F4F88-A5F2-4789-8BB7-44570600B94F}">
   <dimension ref="B4:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3335,6 +3384,7 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3359,10 +3409,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="27" customHeight="1">
-      <c r="A2" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="49">
+      <c r="A2" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="41">
         <v>40</v>
       </c>
       <c r="D2" s="33" t="s">
@@ -3373,10 +3423,10 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="41">
         <v>27.999999999999996</v>
       </c>
       <c r="D3" s="34">
@@ -3387,10 +3437,10 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="41">
         <v>27.999999999999986</v>
       </c>
       <c r="D4" s="34">
@@ -3401,10 +3451,10 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="41">
         <v>40</v>
       </c>
       <c r="D5" s="34">
@@ -3415,10 +3465,10 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="41">
         <v>27.999999999999986</v>
       </c>
       <c r="D6" s="34">
@@ -3429,18 +3479,18 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="41">
         <v>11.999999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="41">
         <v>0</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -3452,10 +3502,10 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9" s="41">
         <v>28</v>
       </c>
     </row>
@@ -3567,7 +3617,7 @@
   <dimension ref="A4:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
